--- a/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_1.xlsx
+++ b/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\github\SmartKG\Resources\Data\Excel\input\EcoSystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A46B8-CE3C-479C-BF08-967607CBC579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1819238-75BA-4A35-A9FE-52C3AA4A003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{80E3142A-27F2-43E4-9C94-1AF85772C5D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{80E3142A-27F2-43E4-9C94-1AF85772C5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>鬣狗</t>
   </si>
   <si>
-    <t>Crocuta crocuta</t>
-  </si>
-  <si>
     <t>腐肉</t>
   </si>
   <si>
@@ -520,6 +517,10 @@
   </si>
   <si>
     <t>食用</t>
+  </si>
+  <si>
+    <t>Crocuta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46648A9E-7BCF-4AE1-91D3-3111A21F2B6B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -999,31 +1000,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1139,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -1329,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
@@ -1341,31 +1342,31 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>4</v>
@@ -1377,31 +1378,31 @@
         <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>4</v>
@@ -1413,21 +1414,21 @@
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1437,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>4</v>
@@ -1455,15 +1456,15 @@
         <v>6</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -1473,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>4</v>
@@ -1491,25 +1492,25 @@
         <v>6</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>4</v>
@@ -1521,21 +1522,21 @@
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -1545,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>4</v>
@@ -1563,15 +1564,15 @@
         <v>6</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1581,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>4</v>
@@ -1599,15 +1600,15 @@
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -1617,13 +1618,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -1635,15 +1636,15 @@
         <v>6</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1653,13 +1654,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -1671,15 +1672,15 @@
         <v>6</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1689,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>4</v>
@@ -1701,73 +1702,73 @@
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -1779,12 +1780,12 @@
         <v>6</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -1797,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>4</v>
@@ -1820,10 +1821,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -1833,13 +1834,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -1851,25 +1852,25 @@
         <v>6</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>4</v>
@@ -1881,31 +1882,31 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>4</v>
@@ -1923,51 +1924,51 @@
         <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="I27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
@@ -1977,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>4</v>
@@ -1995,15 +1996,15 @@
         <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>25</v>
@@ -2013,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>4</v>
@@ -2031,15 +2032,15 @@
         <v>6</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -2049,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>4</v>
@@ -2067,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642D5F1A-2BAD-4F9B-A358-ABF8276AE217}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2088,18 +2089,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2110,7 +2111,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -2121,7 +2122,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>42</v>
@@ -2132,7 +2133,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>46</v>
@@ -2143,18 +2144,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -2165,87 +2166,87 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2253,139 +2254,139 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>14</v>
@@ -2396,7 +2397,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -2407,7 +2408,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -2418,32 +2419,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>24</v>
@@ -2451,10 +2452,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>24</v>
@@ -2462,10 +2463,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>24</v>
@@ -2473,10 +2474,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>24</v>
@@ -2484,65 +2485,65 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>24</v>

--- a/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_1.xlsx
+++ b/Resources/Data/Excel/input/EcoSystems/SmartKG_ecosystem_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\source\github\SmartKG\Resources\Data\Excel\input\EcoSystems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1819238-75BA-4A35-A9FE-52C3AA4A003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B20DE56-AF73-41CC-996B-468370B5A52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{80E3142A-27F2-43E4-9C94-1AF85772C5D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{80E3142A-27F2-43E4-9C94-1AF85772C5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
   <si>
     <t>实体id</t>
   </si>
@@ -496,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狐獴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蚁丘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,18 +504,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 草 </t>
+    <t>食用</t>
+  </si>
+  <si>
+    <t>Crocuta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 鹰 </t>
+    <t xml:space="preserve">  獴  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食用</t>
-  </si>
-  <si>
-    <t>Crocuta</t>
+    <t xml:space="preserve">  草  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  鹰  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +640,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46648A9E-7BCF-4AE1-91D3-3111A21F2B6B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B2:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -1330,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
@@ -1680,7 +1687,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1752,7 +1759,7 @@
         <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>57</v>
@@ -1932,7 +1939,7 @@
         <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>120</v>
@@ -2004,7 +2011,7 @@
         <v>125</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>25</v>
@@ -2079,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642D5F1A-2BAD-4F9B-A358-ABF8276AE217}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2386,7 +2393,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>14</v>
@@ -2397,7 +2404,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -2408,7 +2415,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -2419,7 +2426,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>29</v>
@@ -2430,7 +2437,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
@@ -2441,7 +2448,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>61</v>
@@ -2452,7 +2459,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>65</v>
@@ -2463,7 +2470,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>87</v>
@@ -2474,7 +2481,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>105</v>
@@ -2485,7 +2492,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>69</v>
@@ -2496,7 +2503,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>38</v>
@@ -2507,7 +2514,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>61</v>
@@ -2518,7 +2525,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>61</v>
@@ -2540,13 +2547,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
